--- a/va_facility_data_2025-02-20/Burlington County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Burlington County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6ac8f28f96e546359077bf5d256fb938"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3bb62c550a814f74b8dc247cec78a0b8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rca5f8c21d21c418bae5254d682093b45"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra1582fccffb8465db1843d07750c8a9e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra35c16b0b6e247bfb136e6149761849f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R086ed59b5ff34101bd2036009a1c2016"/>
   </x:sheets>
 </x:workbook>
 </file>
